--- a/3D_Boids_Render/ratioEffects.xlsx
+++ b/3D_Boids_Render/ratioEffects.xlsx
@@ -61,7 +61,7 @@
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
-    <col min="3" max="3" width="4.140625" customWidth="true"/>
+    <col min="3" max="3" width="2.140625" customWidth="true"/>
     <col min="4" max="4" width="4.140625" customWidth="true"/>
     <col min="5" max="5" width="2.140625" customWidth="true"/>
     <col min="6" max="6" width="5.140625" customWidth="true"/>
@@ -79,22 +79,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>295</v>
-      </c>
-      <c r="D1" s="0">
-        <v>575</v>
-      </c>
-      <c r="E1" s="0">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0">
-        <v>1235</v>
-      </c>
-      <c r="G1" s="0">
-        <v>573</v>
-      </c>
-      <c r="H1" s="0">
-        <v>499</v>
+        <v>0</v>
+      </c>
+      <c r="D1" s="0">
+        <v>289</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0</v>
+      </c>
+      <c r="F1" s="0">
+        <v>1248</v>
+      </c>
+      <c r="G1" s="0">
+        <v>667</v>
+      </c>
+      <c r="H1" s="0">
+        <v>630</v>
       </c>
       <c r="I1" s="0">
         <v>510</v>

--- a/3D_Boids_Render/ratioEffects.xlsx
+++ b/3D_Boids_Render/ratioEffects.xlsx
@@ -165,101 +165,101 @@
   <dimension ref="A1:J1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="2.140625" customWidth="true"/>
+    <col min="2" max="2" width="2.140625" customWidth="true"/>
+    <col min="3" max="3" width="2.140625" customWidth="true"/>
+    <col min="4" max="4" width="4.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="5.140625" customWidth="true"/>
+    <col min="7" max="7" width="4.140625" customWidth="true"/>
+    <col min="8" max="8" width="4.140625" customWidth="true"/>
+    <col min="9" max="9" width="4.140625" customWidth="true"/>
+    <col min="10" max="10" width="4.140625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0">
+        <v>200</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0</v>
+      </c>
+      <c r="F1" s="0">
+        <v>1235</v>
+      </c>
+      <c r="G1" s="0">
+        <v>655</v>
+      </c>
+      <c r="H1" s="0">
+        <v>614</v>
+      </c>
+      <c r="I1" s="0">
+        <v>834</v>
+      </c>
+      <c r="J1" s="0">
+        <v>765</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
     <col min="1" max="1" width="3.140625" customWidth="true"/>
     <col min="2" max="2" width="2.140625" customWidth="true"/>
-    <col min="3" max="3" width="4.140625" customWidth="true"/>
-    <col min="4" max="4" width="4.140625" customWidth="true"/>
-    <col min="5" max="5" width="2.140625" customWidth="true"/>
-    <col min="6" max="6" width="5.140625" customWidth="true"/>
-    <col min="7" max="7" width="4.140625" customWidth="true"/>
-    <col min="8" max="8" width="4.140625" customWidth="true"/>
-    <col min="9" max="9" width="4.140625" customWidth="true"/>
-    <col min="10" max="10" width="4.140625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>13</v>
-      </c>
-      <c r="B1" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0">
-        <v>905</v>
-      </c>
-      <c r="D1" s="0">
-        <v>491</v>
-      </c>
-      <c r="E1" s="0">
-        <v>0</v>
-      </c>
-      <c r="F1" s="0">
-        <v>1225</v>
-      </c>
-      <c r="G1" s="0">
-        <v>567</v>
-      </c>
-      <c r="H1" s="0">
-        <v>478</v>
-      </c>
-      <c r="I1" s="0">
-        <v>494</v>
-      </c>
-      <c r="J1" s="0">
-        <v>501</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
-    <col min="3" max="3" width="5.140625" customWidth="true"/>
-    <col min="4" max="4" width="4.140625" customWidth="true"/>
-    <col min="5" max="5" width="2.140625" customWidth="true"/>
-    <col min="6" max="6" width="5.140625" customWidth="true"/>
-    <col min="7" max="7" width="4.140625" customWidth="true"/>
-    <col min="8" max="8" width="4.140625" customWidth="true"/>
-    <col min="9" max="9" width="4.140625" customWidth="true"/>
-    <col min="10" max="10" width="4.140625" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0">
-        <v>25</v>
-      </c>
-      <c r="B1" s="0">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0">
-        <v>1552</v>
-      </c>
-      <c r="D1" s="0">
-        <v>550</v>
-      </c>
-      <c r="E1" s="0">
-        <v>0</v>
-      </c>
-      <c r="F1" s="0">
-        <v>1213</v>
-      </c>
-      <c r="G1" s="0">
-        <v>561</v>
-      </c>
-      <c r="H1" s="0">
-        <v>455</v>
-      </c>
-      <c r="I1" s="0">
-        <v>467</v>
-      </c>
-      <c r="J1" s="0">
-        <v>472</v>
+    <col min="3" max="3" width="2.140625" customWidth="true"/>
+    <col min="4" max="4" width="4.140625" customWidth="true"/>
+    <col min="5" max="5" width="2.140625" customWidth="true"/>
+    <col min="6" max="6" width="5.140625" customWidth="true"/>
+    <col min="7" max="7" width="4.140625" customWidth="true"/>
+    <col min="8" max="8" width="4.140625" customWidth="true"/>
+    <col min="9" max="9" width="4.140625" customWidth="true"/>
+    <col min="10" max="10" width="4.140625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0">
+        <v>10</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0">
+        <v>6</v>
+      </c>
+      <c r="D1" s="0">
+        <v>109</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0</v>
+      </c>
+      <c r="F1" s="0">
+        <v>1221</v>
+      </c>
+      <c r="G1" s="0">
+        <v>663</v>
+      </c>
+      <c r="H1" s="0">
+        <v>593</v>
+      </c>
+      <c r="I1" s="0">
+        <v>816</v>
+      </c>
+      <c r="J1" s="0">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
